--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H2">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I2">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J2">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N2">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O2">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P2">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q2">
-        <v>186.507202379169</v>
+        <v>28.96862549215555</v>
       </c>
       <c r="R2">
-        <v>1678.564821412521</v>
+        <v>260.7176294293999</v>
       </c>
       <c r="S2">
-        <v>0.03337787104704878</v>
+        <v>0.005723426797525321</v>
       </c>
       <c r="T2">
-        <v>0.03337787104704878</v>
+        <v>0.005723426797525321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H3">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I3">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J3">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O3">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P3">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q3">
-        <v>68.33570813319899</v>
+        <v>24.42298327473333</v>
       </c>
       <c r="R3">
-        <v>615.0213731987909</v>
+        <v>219.8068494726</v>
       </c>
       <c r="S3">
-        <v>0.01222955695481191</v>
+        <v>0.004825329285573923</v>
       </c>
       <c r="T3">
-        <v>0.01222955695481191</v>
+        <v>0.004825329285573922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H4">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I4">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J4">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N4">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O4">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P4">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q4">
-        <v>2067.889353371168</v>
+        <v>1111.758062828689</v>
       </c>
       <c r="R4">
-        <v>18611.00418034051</v>
+        <v>10005.8225654582</v>
       </c>
       <c r="S4">
-        <v>0.3700754892889702</v>
+        <v>0.2196537040006133</v>
       </c>
       <c r="T4">
-        <v>0.3700754892889702</v>
+        <v>0.2196537040006133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>61.488057</v>
       </c>
       <c r="I5">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J5">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N5">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O5">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P5">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q5">
-        <v>152.854780081801</v>
+        <v>66.42939439666567</v>
       </c>
       <c r="R5">
-        <v>1375.693020736209</v>
+        <v>597.8645495699909</v>
       </c>
       <c r="S5">
-        <v>0.02735533573723904</v>
+        <v>0.013124674352817</v>
       </c>
       <c r="T5">
-        <v>0.02735533573723903</v>
+        <v>0.013124674352817</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>61.488057</v>
       </c>
       <c r="I6">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J6">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O6">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P6">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q6">
         <v>56.005556381671</v>
@@ -818,10 +818,10 @@
         <v>504.0500074350389</v>
       </c>
       <c r="S6">
-        <v>0.01002291715804763</v>
+        <v>0.0110652023269786</v>
       </c>
       <c r="T6">
-        <v>0.01002291715804763</v>
+        <v>0.01106520232697859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>61.488057</v>
       </c>
       <c r="I7">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J7">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N7">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O7">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P7">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q7">
-        <v>1694.769790715339</v>
+        <v>2549.427650591114</v>
       </c>
       <c r="R7">
-        <v>15252.92811643805</v>
+        <v>22944.84885532002</v>
       </c>
       <c r="S7">
-        <v>0.3033009278318814</v>
+        <v>0.5036988219443288</v>
       </c>
       <c r="T7">
-        <v>0.3033009278318814</v>
+        <v>0.5036988219443288</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H8">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I8">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J8">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N8">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O8">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P8">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q8">
-        <v>109.3146280543473</v>
+        <v>30.44175385478333</v>
       </c>
       <c r="R8">
-        <v>983.831652489126</v>
+        <v>273.9757846930499</v>
       </c>
       <c r="S8">
-        <v>0.01956326357486358</v>
+        <v>0.006014477622464928</v>
       </c>
       <c r="T8">
-        <v>0.01956326357486358</v>
+        <v>0.006014477622464929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H9">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I9">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J9">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O9">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P9">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q9">
-        <v>40.05256859852734</v>
+        <v>25.66495415704999</v>
       </c>
       <c r="R9">
-        <v>360.473117386746</v>
+        <v>230.98458741345</v>
       </c>
       <c r="S9">
-        <v>0.007167924094785715</v>
+        <v>0.005070709565405365</v>
       </c>
       <c r="T9">
-        <v>0.007167924094785713</v>
+        <v>0.005070709565405365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H10">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I10">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J10">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N10">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O10">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P10">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q10">
-        <v>1212.020515227897</v>
+        <v>1168.293790945183</v>
       </c>
       <c r="R10">
-        <v>10908.18463705107</v>
+        <v>10514.64411850665</v>
       </c>
       <c r="S10">
-        <v>0.2169067143123517</v>
+        <v>0.2308236541042926</v>
       </c>
       <c r="T10">
-        <v>0.2169067143123517</v>
+        <v>0.2308236541042926</v>
       </c>
     </row>
   </sheetData>
